--- a/data/pca/factorExposure/factorExposure_2010-05-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-13.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01643933259411504</v>
+        <v>-0.01716775388108544</v>
       </c>
       <c r="C2">
-        <v>0.0006096505277184373</v>
+        <v>0.001055912133334702</v>
       </c>
       <c r="D2">
-        <v>0.01732536894079103</v>
+        <v>-0.009311877930461157</v>
       </c>
       <c r="E2">
-        <v>-0.02116804655736071</v>
+        <v>-0.0005892289815763617</v>
       </c>
       <c r="F2">
-        <v>-0.01396791889998184</v>
+        <v>-0.01060263732460841</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1220761675476848</v>
+        <v>-0.09409609842383392</v>
       </c>
       <c r="C4">
-        <v>0.09617743506774132</v>
+        <v>0.01739688674170718</v>
       </c>
       <c r="D4">
-        <v>-0.01528932658981174</v>
+        <v>-0.08290644947462451</v>
       </c>
       <c r="E4">
-        <v>-0.0192516093510858</v>
+        <v>0.02969168705666272</v>
       </c>
       <c r="F4">
-        <v>-0.04262989374549157</v>
+        <v>0.03303971588202527</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1336635447851742</v>
+        <v>-0.1528345781412625</v>
       </c>
       <c r="C6">
-        <v>0.07080497391401443</v>
+        <v>0.02476429446726657</v>
       </c>
       <c r="D6">
-        <v>0.003074090036712143</v>
+        <v>0.02280912148936355</v>
       </c>
       <c r="E6">
-        <v>0.03137002572761957</v>
+        <v>0.009378411834691399</v>
       </c>
       <c r="F6">
-        <v>0.000495496554043376</v>
+        <v>0.04035980310084251</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06873912863478848</v>
+        <v>-0.06098124157679552</v>
       </c>
       <c r="C7">
-        <v>0.06960124037569999</v>
+        <v>-0.0001626765030965425</v>
       </c>
       <c r="D7">
-        <v>0.007459047014052449</v>
+        <v>-0.05174396351445512</v>
       </c>
       <c r="E7">
-        <v>-0.02910328555116281</v>
+        <v>0.01592057110045131</v>
       </c>
       <c r="F7">
-        <v>-0.007255806091004079</v>
+        <v>0.05442487653754735</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0448520216965797</v>
+        <v>-0.05895447313825768</v>
       </c>
       <c r="C8">
-        <v>0.03330356145821615</v>
+        <v>-0.01286309846078753</v>
       </c>
       <c r="D8">
-        <v>0.004633147870474111</v>
+        <v>-0.03022643858252216</v>
       </c>
       <c r="E8">
-        <v>0.02694435533675925</v>
+        <v>0.01398665515203322</v>
       </c>
       <c r="F8">
-        <v>-0.01143669557159919</v>
+        <v>-0.02837141893368645</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08826551381863537</v>
+        <v>-0.0718102924203724</v>
       </c>
       <c r="C9">
-        <v>0.07729124498427568</v>
+        <v>0.01364262162733807</v>
       </c>
       <c r="D9">
-        <v>-0.02358725778397962</v>
+        <v>-0.0826536015351293</v>
       </c>
       <c r="E9">
-        <v>-0.01517923544233655</v>
+        <v>0.02529395417543299</v>
       </c>
       <c r="F9">
-        <v>-0.02214321368176983</v>
+        <v>0.05562881073352574</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1284813752122694</v>
+        <v>-0.09377888645600488</v>
       </c>
       <c r="C10">
-        <v>-0.1637005384055752</v>
+        <v>0.01590537452514892</v>
       </c>
       <c r="D10">
-        <v>0.0194710106356349</v>
+        <v>0.1706192115102939</v>
       </c>
       <c r="E10">
-        <v>-0.0289846390072576</v>
+        <v>-0.03632765763848758</v>
       </c>
       <c r="F10">
-        <v>-0.01663289883586652</v>
+        <v>-0.05174388225019128</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07399443919613775</v>
+        <v>-0.08816314939365502</v>
       </c>
       <c r="C11">
-        <v>0.07188524771010189</v>
+        <v>0.01290382004917482</v>
       </c>
       <c r="D11">
-        <v>-0.03117465891481327</v>
+        <v>-0.1132270872664522</v>
       </c>
       <c r="E11">
-        <v>0.006805791885841631</v>
+        <v>0.04681009294703068</v>
       </c>
       <c r="F11">
-        <v>-0.02260749611444169</v>
+        <v>0.02331286196308659</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06958557820160567</v>
+        <v>-0.09349196204822009</v>
       </c>
       <c r="C12">
-        <v>0.07874351056176479</v>
+        <v>0.01088530882651062</v>
       </c>
       <c r="D12">
-        <v>-0.047952693519933</v>
+        <v>-0.1198324106263534</v>
       </c>
       <c r="E12">
-        <v>-0.02224815176931912</v>
+        <v>0.04611233771142682</v>
       </c>
       <c r="F12">
-        <v>0.008101936935330602</v>
+        <v>0.02375884517468335</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03597736784995913</v>
+        <v>-0.04384223021394213</v>
       </c>
       <c r="C13">
-        <v>0.04277149250270802</v>
+        <v>0.00452546306197377</v>
       </c>
       <c r="D13">
-        <v>0.01589498365074416</v>
+        <v>-0.04660364262686468</v>
       </c>
       <c r="E13">
-        <v>-0.02667809322605457</v>
+        <v>-0.01211858214631098</v>
       </c>
       <c r="F13">
-        <v>-0.01395720165891665</v>
+        <v>0.01558704535268566</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02956028040505148</v>
+        <v>-0.02185646515143388</v>
       </c>
       <c r="C14">
-        <v>0.02844047872368578</v>
+        <v>0.01481717125833461</v>
       </c>
       <c r="D14">
-        <v>-0.02278437041683573</v>
+        <v>-0.03244426791639898</v>
       </c>
       <c r="E14">
-        <v>-0.0009537884346010718</v>
+        <v>0.01895354786990474</v>
       </c>
       <c r="F14">
-        <v>0.003684958175581233</v>
+        <v>0.01992677459257625</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01773389007199205</v>
+        <v>-0.03213901415055997</v>
       </c>
       <c r="C15">
-        <v>0.02600501266971747</v>
+        <v>0.005669276573957657</v>
       </c>
       <c r="D15">
-        <v>0.06262652516115375</v>
+        <v>-0.04516433454716137</v>
       </c>
       <c r="E15">
-        <v>-0.01544793886826344</v>
+        <v>0.009144780623660479</v>
       </c>
       <c r="F15">
-        <v>-0.01952218399543456</v>
+        <v>0.03141499285569005</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08148254183395902</v>
+        <v>-0.0749401151216251</v>
       </c>
       <c r="C16">
-        <v>0.07780710138492969</v>
+        <v>0.004506633814031571</v>
       </c>
       <c r="D16">
-        <v>-0.03914539570645968</v>
+        <v>-0.1153496735581994</v>
       </c>
       <c r="E16">
-        <v>0.01924238249755483</v>
+        <v>0.06177691935359943</v>
       </c>
       <c r="F16">
-        <v>-0.01079471164805536</v>
+        <v>0.03229481645190333</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02163952874096221</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003707105523586024</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02074639193946389</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01118182212942885</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.0227204198195166</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.03957308255657287</v>
+        <v>-0.06130804370510383</v>
       </c>
       <c r="C20">
-        <v>0.02980707547657944</v>
+        <v>0.002185050708965603</v>
       </c>
       <c r="D20">
-        <v>0.02568136359355393</v>
+        <v>-0.07227526383027537</v>
       </c>
       <c r="E20">
-        <v>-0.01839254143792567</v>
+        <v>0.05414063732835437</v>
       </c>
       <c r="F20">
-        <v>0.01262996270574238</v>
+        <v>0.02820167043466107</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02560320604178067</v>
+        <v>-0.0393287870016308</v>
       </c>
       <c r="C21">
-        <v>0.02177705243832979</v>
+        <v>0.007832010563182898</v>
       </c>
       <c r="D21">
-        <v>-0.0148363393827268</v>
+        <v>-0.03597122458434555</v>
       </c>
       <c r="E21">
-        <v>-0.002834108093112413</v>
+        <v>-0.008106924160539257</v>
       </c>
       <c r="F21">
-        <v>-0.01145394860793683</v>
+        <v>-0.02079344398659188</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0605585567207333</v>
+        <v>-0.04255859033081379</v>
       </c>
       <c r="C22">
-        <v>0.02258478598459266</v>
+        <v>0.000274948468061706</v>
       </c>
       <c r="D22">
-        <v>0.6409951232833336</v>
+        <v>-0.001431432015825437</v>
       </c>
       <c r="E22">
-        <v>-0.1006512634226678</v>
+        <v>0.02913211669090979</v>
       </c>
       <c r="F22">
-        <v>0.1440892302464529</v>
+        <v>-0.0122683017753853</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.06131876039418927</v>
+        <v>-0.04262405705806527</v>
       </c>
       <c r="C23">
-        <v>0.02460668400978824</v>
+        <v>0.0003013370627448681</v>
       </c>
       <c r="D23">
-        <v>0.6434653428810347</v>
+        <v>-0.00161947839949021</v>
       </c>
       <c r="E23">
-        <v>-0.1004422429449513</v>
+        <v>0.02951656597769605</v>
       </c>
       <c r="F23">
-        <v>0.1434006983734001</v>
+        <v>-0.01173655674804698</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08005492383597276</v>
+        <v>-0.08114445685736336</v>
       </c>
       <c r="C24">
-        <v>0.07284276575998759</v>
+        <v>0.004755296153683588</v>
       </c>
       <c r="D24">
-        <v>-0.03541538220298243</v>
+        <v>-0.1162963011786322</v>
       </c>
       <c r="E24">
-        <v>0.002776912772800848</v>
+        <v>0.04936428498518337</v>
       </c>
       <c r="F24">
-        <v>-0.005619966478853934</v>
+        <v>0.02540868926812022</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07996984339550298</v>
+        <v>-0.08558543898511414</v>
       </c>
       <c r="C25">
-        <v>0.06928444387908311</v>
+        <v>0.006696707545784526</v>
       </c>
       <c r="D25">
-        <v>-0.04887716644407906</v>
+        <v>-0.1044422250977979</v>
       </c>
       <c r="E25">
-        <v>-0.009575752182305114</v>
+        <v>0.03247285492133053</v>
       </c>
       <c r="F25">
-        <v>-0.00713800931044779</v>
+        <v>0.03288163416951306</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04005072099418121</v>
+        <v>-0.05563435798317622</v>
       </c>
       <c r="C26">
-        <v>-0.002880559686866017</v>
+        <v>0.0156079444006332</v>
       </c>
       <c r="D26">
-        <v>0.01706126297995396</v>
+        <v>-0.03358030589749096</v>
       </c>
       <c r="E26">
-        <v>0.02050416526583657</v>
+        <v>0.0257670672426656</v>
       </c>
       <c r="F26">
-        <v>0.05750099157565275</v>
+        <v>-0.007226319902868874</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1600600765628527</v>
+        <v>-0.1400830488184512</v>
       </c>
       <c r="C28">
-        <v>-0.2688767637907866</v>
+        <v>0.01365161506638346</v>
       </c>
       <c r="D28">
-        <v>-0.001865159215052357</v>
+        <v>0.2691573995658583</v>
       </c>
       <c r="E28">
-        <v>0.06728545154291635</v>
+        <v>-0.06754587928687</v>
       </c>
       <c r="F28">
-        <v>0.01095596432963686</v>
+        <v>0.03421860393121096</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03045312301677108</v>
+        <v>-0.02705242993376969</v>
       </c>
       <c r="C29">
-        <v>0.0268571904313123</v>
+        <v>0.009175252200506441</v>
       </c>
       <c r="D29">
-        <v>-0.02324313055053752</v>
+        <v>-0.03108499788484824</v>
       </c>
       <c r="E29">
-        <v>-0.03008459123250746</v>
+        <v>0.01177283491235651</v>
       </c>
       <c r="F29">
-        <v>0.01840753448797022</v>
+        <v>-0.01006513091732395</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09223860283787787</v>
+        <v>-0.06422369850863957</v>
       </c>
       <c r="C30">
-        <v>0.0753634945938457</v>
+        <v>0.006325954577880746</v>
       </c>
       <c r="D30">
-        <v>-0.03504713130724394</v>
+        <v>-0.08052605442459433</v>
       </c>
       <c r="E30">
-        <v>0.07464632665916779</v>
+        <v>0.023515118610097</v>
       </c>
       <c r="F30">
-        <v>0.1851445197148065</v>
+        <v>0.1118865833170885</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0322656475850512</v>
+        <v>-0.04867106283199533</v>
       </c>
       <c r="C31">
-        <v>0.05409939931941042</v>
+        <v>0.01520047524422596</v>
       </c>
       <c r="D31">
-        <v>-0.001212204362860916</v>
+        <v>-0.02885406625903546</v>
       </c>
       <c r="E31">
-        <v>-0.02279840954605017</v>
+        <v>0.02740670576782884</v>
       </c>
       <c r="F31">
-        <v>-0.009714492876176402</v>
+        <v>-0.002123597859654368</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05368605495161224</v>
+        <v>-0.04850553279782535</v>
       </c>
       <c r="C32">
-        <v>0.02734646420036328</v>
+        <v>0.0003760487727773873</v>
       </c>
       <c r="D32">
-        <v>-0.05257721693598161</v>
+        <v>-0.03023015698444806</v>
       </c>
       <c r="E32">
-        <v>0.06574809307941633</v>
+        <v>0.02921271399712739</v>
       </c>
       <c r="F32">
-        <v>-0.02177472964873557</v>
+        <v>0.001950613334634357</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08645494253237371</v>
+        <v>-0.0904309299366675</v>
       </c>
       <c r="C33">
-        <v>0.06640181725007646</v>
+        <v>0.009897311453112683</v>
       </c>
       <c r="D33">
-        <v>-0.03431203728996279</v>
+        <v>-0.09221110321859095</v>
       </c>
       <c r="E33">
-        <v>-0.0004164933036664652</v>
+        <v>0.04596659514764572</v>
       </c>
       <c r="F33">
-        <v>0.002568144122412195</v>
+        <v>0.04039439643288244</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06810091946806693</v>
+        <v>-0.06902609823579831</v>
       </c>
       <c r="C34">
-        <v>0.05448564768906328</v>
+        <v>0.01287317952739309</v>
       </c>
       <c r="D34">
-        <v>-0.03996222005460297</v>
+        <v>-0.09686167794656679</v>
       </c>
       <c r="E34">
-        <v>0.006000922076864461</v>
+        <v>0.03432468224573173</v>
       </c>
       <c r="F34">
-        <v>-0.01118475180042911</v>
+        <v>0.04654661571297149</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01115460072754515</v>
+        <v>-0.02415312378927697</v>
       </c>
       <c r="C35">
-        <v>0.0132776797557514</v>
+        <v>0.00265795654904864</v>
       </c>
       <c r="D35">
-        <v>-0.0008166464008787215</v>
+        <v>-0.01085995361463063</v>
       </c>
       <c r="E35">
-        <v>-0.009733986710333755</v>
+        <v>0.01118927940650834</v>
       </c>
       <c r="F35">
-        <v>0.004423667611542189</v>
+        <v>0.01138939408663775</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02200070268779906</v>
+        <v>-0.02449519278829099</v>
       </c>
       <c r="C36">
-        <v>0.01790704327275937</v>
+        <v>0.007200478411741124</v>
       </c>
       <c r="D36">
-        <v>0.01115618753250282</v>
+        <v>-0.0382514427237528</v>
       </c>
       <c r="E36">
-        <v>0.006070427247086912</v>
+        <v>0.0170134697823628</v>
       </c>
       <c r="F36">
-        <v>0.01369938325075688</v>
+        <v>0.007482324597057237</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01304905241788093</v>
+        <v>-0.001998760511604858</v>
       </c>
       <c r="C38">
-        <v>0.02804621602977176</v>
+        <v>0.0003517505985092488</v>
       </c>
       <c r="D38">
-        <v>0.02058218193207264</v>
+        <v>-0.002130340083370498</v>
       </c>
       <c r="E38">
-        <v>-0.03650977861619849</v>
+        <v>0.002465805739538019</v>
       </c>
       <c r="F38">
-        <v>0.06511353865224302</v>
+        <v>-0.001148733300336035</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1097941525326109</v>
+        <v>-0.1101300074369305</v>
       </c>
       <c r="C39">
-        <v>0.09922364685545737</v>
+        <v>0.01843194396225515</v>
       </c>
       <c r="D39">
-        <v>-0.1384634209235324</v>
+        <v>-0.1494160626254102</v>
       </c>
       <c r="E39">
-        <v>0.02109159610513741</v>
+        <v>0.05791031658728019</v>
       </c>
       <c r="F39">
-        <v>0.0856329500793538</v>
+        <v>0.03411602808860593</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02403518900684048</v>
+        <v>-0.03737000211984098</v>
       </c>
       <c r="C40">
-        <v>0.06999026267659875</v>
+        <v>0.007661065025302906</v>
       </c>
       <c r="D40">
-        <v>0.02420522590304617</v>
+        <v>-0.03148278214721265</v>
       </c>
       <c r="E40">
-        <v>-0.06257939024157243</v>
+        <v>0.004589729886129078</v>
       </c>
       <c r="F40">
-        <v>-0.01446984699764083</v>
+        <v>-0.01871854316286015</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03406870248843145</v>
+        <v>-0.02654688115684598</v>
       </c>
       <c r="C41">
-        <v>0.025663239041418</v>
+        <v>0.006928453144815843</v>
       </c>
       <c r="D41">
-        <v>-0.02139511425914443</v>
+        <v>-0.01068181655127272</v>
       </c>
       <c r="E41">
-        <v>-0.01806309226597753</v>
+        <v>0.01229624771189392</v>
       </c>
       <c r="F41">
-        <v>0.0100937456986425</v>
+        <v>-0.01093508921335964</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04386676265227103</v>
+        <v>-0.04193840217971355</v>
       </c>
       <c r="C43">
-        <v>0.03068823978279219</v>
+        <v>0.007077474332453058</v>
       </c>
       <c r="D43">
-        <v>0.008409457921865005</v>
+        <v>-0.02071587553042853</v>
       </c>
       <c r="E43">
-        <v>-0.009909263144164383</v>
+        <v>0.02582809204611336</v>
       </c>
       <c r="F43">
-        <v>0.03802597627513359</v>
+        <v>-0.01230652744737829</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1051899184910886</v>
+        <v>-0.07321899385456855</v>
       </c>
       <c r="C44">
-        <v>0.109556743308569</v>
+        <v>0.02270038834190193</v>
       </c>
       <c r="D44">
-        <v>0.07949670114403552</v>
+        <v>-0.09938648785079601</v>
       </c>
       <c r="E44">
-        <v>-0.04416074577488813</v>
+        <v>0.06769881577791602</v>
       </c>
       <c r="F44">
-        <v>0.0009965180190269305</v>
+        <v>0.1712174918459842</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02612495810491487</v>
+        <v>-0.02261685254065525</v>
       </c>
       <c r="C46">
-        <v>0.006440192771210328</v>
+        <v>0.004133386554416736</v>
       </c>
       <c r="D46">
-        <v>0.02463545991329567</v>
+        <v>-0.01112263237299768</v>
       </c>
       <c r="E46">
-        <v>-0.03173928811444719</v>
+        <v>0.02306869644841979</v>
       </c>
       <c r="F46">
-        <v>0.03347284902657819</v>
+        <v>-0.0005360881488133853</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0386902356720305</v>
+        <v>-0.05219575772293208</v>
       </c>
       <c r="C47">
-        <v>0.02930760273112225</v>
+        <v>0.003340931817335502</v>
       </c>
       <c r="D47">
-        <v>-0.003947885359162963</v>
+        <v>-0.01222691161802223</v>
       </c>
       <c r="E47">
-        <v>-0.01218293822811341</v>
+        <v>0.02157082976833874</v>
       </c>
       <c r="F47">
-        <v>0.002749735440904728</v>
+        <v>-0.04470508840700382</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03960109768221225</v>
+        <v>-0.04758770015377762</v>
       </c>
       <c r="C48">
-        <v>0.01448110433021785</v>
+        <v>0.003255975732475594</v>
       </c>
       <c r="D48">
-        <v>-0.01471261596318164</v>
+        <v>-0.04684040267359023</v>
       </c>
       <c r="E48">
-        <v>-0.01377686542854999</v>
+        <v>-0.005223824286989768</v>
       </c>
       <c r="F48">
-        <v>-0.01895607830531222</v>
+        <v>0.01261600375697587</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2191155393523862</v>
+        <v>-0.2025349701020803</v>
       </c>
       <c r="C49">
-        <v>0.002450040329847977</v>
+        <v>0.01707593916303923</v>
       </c>
       <c r="D49">
-        <v>-0.0456589083289488</v>
+        <v>0.009880260930498029</v>
       </c>
       <c r="E49">
-        <v>-0.09387553559431082</v>
+        <v>0.03657831223914908</v>
       </c>
       <c r="F49">
-        <v>-0.0175365106803873</v>
+        <v>0.03189478247229781</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03940852789346637</v>
+        <v>-0.04839084783325676</v>
       </c>
       <c r="C50">
-        <v>0.02791947439664211</v>
+        <v>0.01122823740733869</v>
       </c>
       <c r="D50">
-        <v>-0.01804459029180987</v>
+        <v>-0.02589616572349793</v>
       </c>
       <c r="E50">
-        <v>-0.003385275963785098</v>
+        <v>0.02831491925894022</v>
       </c>
       <c r="F50">
-        <v>0.03143802009387173</v>
+        <v>0.009570201994896953</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.02218382485567853</v>
+        <v>-0.003023584812790628</v>
       </c>
       <c r="C51">
-        <v>-0.009385855109694103</v>
+        <v>0.0007604485013278397</v>
       </c>
       <c r="D51">
-        <v>0.00214887284940033</v>
+        <v>0.002152844315429044</v>
       </c>
       <c r="E51">
-        <v>-0.01724324413065893</v>
+        <v>0.0005800898075600406</v>
       </c>
       <c r="F51">
-        <v>-0.02666325706755668</v>
+        <v>0.005679688798324042</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.07646020992111226</v>
+        <v>-0.1445582046995679</v>
       </c>
       <c r="C52">
-        <v>0.0656070974177508</v>
+        <v>0.01330604294506402</v>
       </c>
       <c r="D52">
-        <v>-0.01608199587747233</v>
+        <v>-0.0502958673405942</v>
       </c>
       <c r="E52">
-        <v>-0.008815143408152301</v>
+        <v>0.02080852648060373</v>
       </c>
       <c r="F52">
-        <v>0.05515396995769726</v>
+        <v>0.03570041125548644</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1588709217572371</v>
+        <v>-0.1736942470743055</v>
       </c>
       <c r="C53">
-        <v>0.05903812659111665</v>
+        <v>0.01602640284324463</v>
       </c>
       <c r="D53">
-        <v>0.01548881236233021</v>
+        <v>-0.0135357109543752</v>
       </c>
       <c r="E53">
-        <v>-0.04914492580237134</v>
+        <v>0.03614688595301398</v>
       </c>
       <c r="F53">
-        <v>0.07435936561298415</v>
+        <v>0.06721277703241552</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05904036787058765</v>
+        <v>-0.0225979792709534</v>
       </c>
       <c r="C54">
-        <v>0.07091495904903006</v>
+        <v>0.01273206368998446</v>
       </c>
       <c r="D54">
-        <v>0.0005629958847565774</v>
+        <v>-0.03381505665620355</v>
       </c>
       <c r="E54">
-        <v>-0.01749039428646289</v>
+        <v>0.01525417075287039</v>
       </c>
       <c r="F54">
-        <v>-0.03289685351268414</v>
+        <v>-0.003583209652662607</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08546430179959222</v>
+        <v>-0.1147474918862678</v>
       </c>
       <c r="C55">
-        <v>0.05088188816337773</v>
+        <v>0.01471743630498878</v>
       </c>
       <c r="D55">
-        <v>-0.03169807654046541</v>
+        <v>-0.01252433391684367</v>
       </c>
       <c r="E55">
-        <v>-0.02312115989350933</v>
+        <v>0.03040219224741376</v>
       </c>
       <c r="F55">
-        <v>0.02078498397670136</v>
+        <v>0.05006049017504324</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1475404005628052</v>
+        <v>-0.1777584480928173</v>
       </c>
       <c r="C56">
-        <v>0.0830687880063615</v>
+        <v>0.01351512908311062</v>
       </c>
       <c r="D56">
-        <v>-0.02548431018578709</v>
+        <v>-0.008092014603025333</v>
       </c>
       <c r="E56">
-        <v>-0.07926985545213626</v>
+        <v>0.04033117435362044</v>
       </c>
       <c r="F56">
-        <v>0.04949966780207071</v>
+        <v>0.03980247471246706</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04977227209692179</v>
+        <v>-0.04684517857119359</v>
       </c>
       <c r="C58">
-        <v>0.03255787995798853</v>
+        <v>0.002947520372541452</v>
       </c>
       <c r="D58">
-        <v>0.03983399642013589</v>
+        <v>-0.06368185355774801</v>
       </c>
       <c r="E58">
-        <v>-0.02575024623003604</v>
+        <v>0.02206859826699193</v>
       </c>
       <c r="F58">
-        <v>0.03228952265867777</v>
+        <v>-0.05026804522092545</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2145652290632779</v>
+        <v>-0.1710629836292381</v>
       </c>
       <c r="C59">
-        <v>-0.223000196143838</v>
+        <v>0.01525539459899082</v>
       </c>
       <c r="D59">
-        <v>-0.046457844887898</v>
+        <v>0.2274413842785011</v>
       </c>
       <c r="E59">
-        <v>0.02108596916763259</v>
+        <v>-0.04847822492329905</v>
       </c>
       <c r="F59">
-        <v>-0.08755058139707038</v>
+        <v>-0.03182223392037797</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2210081578744123</v>
+        <v>-0.2376297733004489</v>
       </c>
       <c r="C60">
-        <v>0.1077471049734068</v>
+        <v>-0.00414237035427857</v>
       </c>
       <c r="D60">
-        <v>-0.08339398328094044</v>
+        <v>-0.04913075276747934</v>
       </c>
       <c r="E60">
-        <v>-0.1319671056615547</v>
+        <v>0.007843286925985894</v>
       </c>
       <c r="F60">
-        <v>0.01397729917328311</v>
+        <v>-0.03225600573199447</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1075174511875628</v>
+        <v>-0.08498204960739117</v>
       </c>
       <c r="C61">
-        <v>0.06893885011385839</v>
+        <v>0.01435920920163795</v>
       </c>
       <c r="D61">
-        <v>-0.08441214184179238</v>
+        <v>-0.1102278501329515</v>
       </c>
       <c r="E61">
-        <v>-0.01579327809582655</v>
+        <v>0.03989449794168007</v>
       </c>
       <c r="F61">
-        <v>0.03835634011686724</v>
+        <v>0.01892907829709098</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1439359421152999</v>
+        <v>-0.1704321683000369</v>
       </c>
       <c r="C62">
-        <v>0.06353532829570821</v>
+        <v>0.01748760600879457</v>
       </c>
       <c r="D62">
-        <v>0.00148205947023012</v>
+        <v>-0.01159598050637943</v>
       </c>
       <c r="E62">
-        <v>-0.06095715541258467</v>
+        <v>0.03748729587871143</v>
       </c>
       <c r="F62">
-        <v>0.04845446322143774</v>
+        <v>0.02113829198525795</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04579468853804885</v>
+        <v>-0.04284575589427903</v>
       </c>
       <c r="C63">
-        <v>0.02824971459278148</v>
+        <v>0.004017572698052926</v>
       </c>
       <c r="D63">
-        <v>-0.008849069761378742</v>
+        <v>-0.04835632165722822</v>
       </c>
       <c r="E63">
-        <v>0.02628579711574194</v>
+        <v>0.01993655229383798</v>
       </c>
       <c r="F63">
-        <v>0.003192414241291076</v>
+        <v>0.00981170743118424</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09355938926886576</v>
+        <v>-0.1126289437089234</v>
       </c>
       <c r="C64">
-        <v>0.05566457683965995</v>
+        <v>0.01212416030753991</v>
       </c>
       <c r="D64">
-        <v>-0.007993448010630122</v>
+        <v>-0.04115391383106103</v>
       </c>
       <c r="E64">
-        <v>-0.07100943891671202</v>
+        <v>0.02024467427559501</v>
       </c>
       <c r="F64">
-        <v>0.05572019357919522</v>
+        <v>0.02204979431211027</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1237800664219134</v>
+        <v>-0.1443815887362818</v>
       </c>
       <c r="C65">
-        <v>0.06228866509554981</v>
+        <v>0.03130120698877862</v>
       </c>
       <c r="D65">
-        <v>-0.01695565790417776</v>
+        <v>0.0444295242488754</v>
       </c>
       <c r="E65">
-        <v>0.04289415645658116</v>
+        <v>0.0008490301067878212</v>
       </c>
       <c r="F65">
-        <v>0.04750540171852388</v>
+        <v>0.04201793489602288</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1244055712382226</v>
+        <v>-0.1316722771724276</v>
       </c>
       <c r="C66">
-        <v>0.1186432591919436</v>
+        <v>0.01592887007546452</v>
       </c>
       <c r="D66">
-        <v>-0.1279579278827186</v>
+        <v>-0.1367906731316529</v>
       </c>
       <c r="E66">
-        <v>-0.001597697411389187</v>
+        <v>0.06431850077035761</v>
       </c>
       <c r="F66">
-        <v>0.1231394422879926</v>
+        <v>0.04002240165323924</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.0580923262714778</v>
+        <v>-0.06308862930678905</v>
       </c>
       <c r="C67">
-        <v>0.03112714574600829</v>
+        <v>0.003603161141008553</v>
       </c>
       <c r="D67">
-        <v>0.03063294383550764</v>
+        <v>-0.05459059532404036</v>
       </c>
       <c r="E67">
-        <v>-0.01396874502331186</v>
+        <v>0.01997926376293143</v>
       </c>
       <c r="F67">
-        <v>0.048540502768832</v>
+        <v>-0.04162119955329781</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1356066289296472</v>
+        <v>-0.1145682844138044</v>
       </c>
       <c r="C68">
-        <v>-0.2417739017392969</v>
+        <v>0.02462676203924335</v>
       </c>
       <c r="D68">
-        <v>-0.01292546674547154</v>
+        <v>0.2662960244968935</v>
       </c>
       <c r="E68">
-        <v>0.06802298054712143</v>
+        <v>-0.08533054323407809</v>
       </c>
       <c r="F68">
-        <v>0.001081118741129023</v>
+        <v>0.03869948479314383</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03905531992275749</v>
+        <v>-0.03965441524294133</v>
       </c>
       <c r="C69">
-        <v>-0.006595501049411249</v>
+        <v>0.001133359118898125</v>
       </c>
       <c r="D69">
-        <v>0.0003827490629485433</v>
+        <v>-0.009134741943084135</v>
       </c>
       <c r="E69">
-        <v>-0.00704205760875701</v>
+        <v>0.02402778084737136</v>
       </c>
       <c r="F69">
-        <v>0.03825139828942346</v>
+        <v>-0.01277425533735652</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03809760493802032</v>
+        <v>-0.06379891999118931</v>
       </c>
       <c r="C70">
-        <v>0.01535843936720675</v>
+        <v>-0.02761528732459815</v>
       </c>
       <c r="D70">
-        <v>-0.03947818797930029</v>
+        <v>-0.02638653192862063</v>
       </c>
       <c r="E70">
-        <v>-0.02078224208748496</v>
+        <v>-0.04849709229193415</v>
       </c>
       <c r="F70">
-        <v>0.05818436010929143</v>
+        <v>-0.2956913835295297</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1532578983314925</v>
+        <v>-0.1332821721653148</v>
       </c>
       <c r="C71">
-        <v>-0.2651301336811729</v>
+        <v>0.02879594948194596</v>
       </c>
       <c r="D71">
-        <v>-0.004807010944319829</v>
+        <v>0.282150117370231</v>
       </c>
       <c r="E71">
-        <v>0.0357886487143448</v>
+        <v>-0.09364337411484373</v>
       </c>
       <c r="F71">
-        <v>0.04861941053536473</v>
+        <v>0.04247825156071722</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1426365729225891</v>
+        <v>-0.1388324610685344</v>
       </c>
       <c r="C72">
-        <v>0.03029408747044571</v>
+        <v>0.02440039010361111</v>
       </c>
       <c r="D72">
-        <v>-0.0020393806349393</v>
+        <v>-0.004565801906417759</v>
       </c>
       <c r="E72">
-        <v>-0.01608217967276444</v>
+        <v>0.04367567388725765</v>
       </c>
       <c r="F72">
-        <v>0.04314901840813318</v>
+        <v>0.02232043527701626</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2109707426254626</v>
+        <v>-0.2052312278772773</v>
       </c>
       <c r="C73">
-        <v>0.03927300516898189</v>
+        <v>0.01153369451592661</v>
       </c>
       <c r="D73">
-        <v>-0.1260285501760668</v>
+        <v>-0.01641215782319519</v>
       </c>
       <c r="E73">
-        <v>-0.1554498921666158</v>
+        <v>0.06320931075696087</v>
       </c>
       <c r="F73">
-        <v>0.06705637474706265</v>
+        <v>0.03148919983313202</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1097150094239342</v>
+        <v>-0.09438327639304998</v>
       </c>
       <c r="C74">
-        <v>0.09555067193809767</v>
+        <v>0.01202342177516584</v>
       </c>
       <c r="D74">
-        <v>-0.007461413184600883</v>
+        <v>-0.02356532707880954</v>
       </c>
       <c r="E74">
-        <v>-0.0272046231554932</v>
+        <v>0.04935155339476995</v>
       </c>
       <c r="F74">
-        <v>0.08496999592600883</v>
+        <v>0.04304898002334743</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1013520874941296</v>
+        <v>-0.1301070147066626</v>
       </c>
       <c r="C75">
-        <v>0.06803673675933049</v>
+        <v>0.02628665774678527</v>
       </c>
       <c r="D75">
-        <v>-0.006600579270291607</v>
+        <v>-0.03355333303136608</v>
       </c>
       <c r="E75">
-        <v>-0.02094183158349412</v>
+        <v>0.06003333308236963</v>
       </c>
       <c r="F75">
-        <v>-0.01626250708770543</v>
+        <v>0.01279324493452283</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.03798574385213627</v>
+        <v>-0.005247518893930799</v>
       </c>
       <c r="C76">
-        <v>0.008248438408896207</v>
+        <v>0.001219081607172213</v>
       </c>
       <c r="D76">
-        <v>-0.008046037064566951</v>
+        <v>0.001072094508363964</v>
       </c>
       <c r="E76">
-        <v>-0.03155634040209813</v>
+        <v>0.00308548334021702</v>
       </c>
       <c r="F76">
-        <v>-0.008377812299272125</v>
+        <v>0.004507388125956504</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07011978210527221</v>
+        <v>-0.07921202277014855</v>
       </c>
       <c r="C77">
-        <v>0.0433137976046675</v>
+        <v>0.01055006513580628</v>
       </c>
       <c r="D77">
-        <v>-0.03040597336851671</v>
+        <v>-0.1099052410354291</v>
       </c>
       <c r="E77">
-        <v>-0.037109353733175</v>
+        <v>0.0361171750408173</v>
       </c>
       <c r="F77">
-        <v>-0.02813213273788766</v>
+        <v>0.03234082671471263</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1328043199234451</v>
+        <v>-0.1066744164145954</v>
       </c>
       <c r="C78">
-        <v>0.1289919759103423</v>
+        <v>0.04228081257928554</v>
       </c>
       <c r="D78">
-        <v>0.1755043552912613</v>
+        <v>-0.1191422140777692</v>
       </c>
       <c r="E78">
-        <v>0.08144297811271983</v>
+        <v>0.08585508567459178</v>
       </c>
       <c r="F78">
-        <v>-0.8316262969422413</v>
+        <v>0.07616213005950148</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1335016419298329</v>
+        <v>-0.1645313441897809</v>
       </c>
       <c r="C79">
-        <v>0.07442727973329878</v>
+        <v>0.02024526308436165</v>
       </c>
       <c r="D79">
-        <v>0.006496801299922337</v>
+        <v>-0.01945540061025168</v>
       </c>
       <c r="E79">
-        <v>-0.05736731417444813</v>
+        <v>0.04839160928477783</v>
       </c>
       <c r="F79">
-        <v>0.04112042800876109</v>
+        <v>0.007670775697113348</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07178709404444014</v>
+        <v>-0.08008461208646178</v>
       </c>
       <c r="C80">
-        <v>0.05707748140546938</v>
+        <v>-0.0004862535075991026</v>
       </c>
       <c r="D80">
-        <v>-0.07908960450044333</v>
+        <v>-0.05720791703810857</v>
       </c>
       <c r="E80">
-        <v>0.002561197202978959</v>
+        <v>0.03308693055244948</v>
       </c>
       <c r="F80">
-        <v>0.03122038751356424</v>
+        <v>-0.01627500877496242</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1309908643349529</v>
+        <v>-0.1236652455526588</v>
       </c>
       <c r="C81">
-        <v>0.08803673025676727</v>
+        <v>0.03027317407516817</v>
       </c>
       <c r="D81">
-        <v>1.58301520694961e-05</v>
+        <v>-0.01901045249826721</v>
       </c>
       <c r="E81">
-        <v>-0.04581524976117856</v>
+        <v>0.05950078095259656</v>
       </c>
       <c r="F81">
-        <v>0.01121075619261368</v>
+        <v>0.004902242268014619</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1372771693128922</v>
+        <v>-0.1638422095318351</v>
       </c>
       <c r="C82">
-        <v>0.05463409307756407</v>
+        <v>0.02093727812570819</v>
       </c>
       <c r="D82">
-        <v>-0.01422857871531602</v>
+        <v>-0.01621770618624941</v>
       </c>
       <c r="E82">
-        <v>-0.03047634933849274</v>
+        <v>0.03416264045037617</v>
       </c>
       <c r="F82">
-        <v>0.06958995428580253</v>
+        <v>0.06110550792789551</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08319032302990506</v>
+        <v>-0.06414659918711213</v>
       </c>
       <c r="C83">
-        <v>0.1497436795696713</v>
+        <v>0.003770794704422669</v>
       </c>
       <c r="D83">
-        <v>-0.01323931866597658</v>
+        <v>-0.04908713059664283</v>
       </c>
       <c r="E83">
-        <v>-0.0008943536823153626</v>
+        <v>0.004977382294680683</v>
       </c>
       <c r="F83">
-        <v>0.01795686755197648</v>
+        <v>-0.04204579845651495</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05779060780692361</v>
+        <v>-0.05964357196325402</v>
       </c>
       <c r="C84">
-        <v>-0.1003988879428248</v>
+        <v>0.01147652207983059</v>
       </c>
       <c r="D84">
-        <v>-0.04708263471501826</v>
+        <v>-0.06100363588728878</v>
       </c>
       <c r="E84">
-        <v>0.002436206752559781</v>
+        <v>-0.0008172184357019286</v>
       </c>
       <c r="F84">
-        <v>-0.1808943819253639</v>
+        <v>0.0121072061066462</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1200308710335293</v>
+        <v>-0.1385619308012001</v>
       </c>
       <c r="C85">
-        <v>0.05361281442698668</v>
+        <v>0.02573314762060458</v>
       </c>
       <c r="D85">
-        <v>-0.007493565994221643</v>
+        <v>-0.01476538021602675</v>
       </c>
       <c r="E85">
-        <v>-0.07036147061168582</v>
+        <v>0.04057246582815819</v>
       </c>
       <c r="F85">
-        <v>0.03858900850320312</v>
+        <v>0.04477931525635968</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08280384392287767</v>
+        <v>-0.09813896012468794</v>
       </c>
       <c r="C86">
-        <v>0.002897562350036201</v>
+        <v>-0.007280668879372635</v>
       </c>
       <c r="D86">
-        <v>0.002761016195939346</v>
+        <v>-0.02222698929481685</v>
       </c>
       <c r="E86">
-        <v>-0.1614259772374099</v>
+        <v>0.1427254659116131</v>
       </c>
       <c r="F86">
-        <v>-0.2610925331025944</v>
+        <v>-0.8572643260658126</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1201576239103448</v>
+        <v>-0.09910711312278708</v>
       </c>
       <c r="C87">
-        <v>0.1368236825600306</v>
+        <v>0.02516781778387605</v>
       </c>
       <c r="D87">
-        <v>0.004996106889469104</v>
+        <v>-0.0777088058560538</v>
       </c>
       <c r="E87">
-        <v>-0.07682129351938448</v>
+        <v>-0.05083059917292616</v>
       </c>
       <c r="F87">
-        <v>-0.03380667908270688</v>
+        <v>0.07736136544650482</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05226813598733314</v>
+        <v>-0.06206551465407849</v>
       </c>
       <c r="C88">
-        <v>0.05640411464474979</v>
+        <v>0.00328569102053098</v>
       </c>
       <c r="D88">
-        <v>-0.04354015311817219</v>
+        <v>-0.05355688324786349</v>
       </c>
       <c r="E88">
-        <v>-0.03121569009531104</v>
+        <v>0.02755125258307348</v>
       </c>
       <c r="F88">
-        <v>0.04419525098424369</v>
+        <v>0.008589797399540272</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2169712811794581</v>
+        <v>-0.1339218632882176</v>
       </c>
       <c r="C89">
-        <v>-0.3600761641115702</v>
+        <v>0.00704629958024765</v>
       </c>
       <c r="D89">
-        <v>0.05355073968948356</v>
+        <v>0.2626757174550263</v>
       </c>
       <c r="E89">
-        <v>0.02790501699086676</v>
+        <v>-0.09163973559027315</v>
       </c>
       <c r="F89">
-        <v>-0.01711016369581818</v>
+        <v>0.02434722950073375</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1655034144577794</v>
+        <v>-0.1446783339212499</v>
       </c>
       <c r="C90">
-        <v>-0.2549118268734015</v>
+        <v>0.0243567464456243</v>
       </c>
       <c r="D90">
-        <v>-0.003787895816499438</v>
+        <v>0.2700092867210969</v>
       </c>
       <c r="E90">
-        <v>0.02401631998358235</v>
+        <v>-0.1068063721177217</v>
       </c>
       <c r="F90">
-        <v>0.04037977707014255</v>
+        <v>0.02546753385048074</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07770508536284698</v>
+        <v>-0.1186447723417177</v>
       </c>
       <c r="C91">
-        <v>0.05138400561399106</v>
+        <v>0.01657838107691414</v>
       </c>
       <c r="D91">
-        <v>-0.01003209705758971</v>
+        <v>0.006372366620649553</v>
       </c>
       <c r="E91">
-        <v>-0.04664371684956527</v>
+        <v>0.05720993004016014</v>
       </c>
       <c r="F91">
-        <v>0.01149931482298123</v>
+        <v>-0.02027404425252133</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1883680392646047</v>
+        <v>-0.1482924061862306</v>
       </c>
       <c r="C92">
-        <v>-0.2966284705774666</v>
+        <v>0.01614280069090529</v>
       </c>
       <c r="D92">
-        <v>0.0346613759137774</v>
+        <v>0.3013565874597964</v>
       </c>
       <c r="E92">
-        <v>0.04341765318470629</v>
+        <v>-0.1021849147925325</v>
       </c>
       <c r="F92">
-        <v>-0.01323002914607976</v>
+        <v>0.02189354058816099</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1670448053072476</v>
+        <v>-0.1489151230578317</v>
       </c>
       <c r="C93">
-        <v>-0.3156243777617677</v>
+        <v>0.02081433427218436</v>
       </c>
       <c r="D93">
-        <v>-0.04084793598647002</v>
+        <v>0.2722321710080808</v>
       </c>
       <c r="E93">
-        <v>0.03301719247461619</v>
+        <v>-0.07284666390427964</v>
       </c>
       <c r="F93">
-        <v>0.03192782881048177</v>
+        <v>0.01932076756528491</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1288494840284246</v>
+        <v>-0.1335622793155768</v>
       </c>
       <c r="C94">
-        <v>0.07649592601820353</v>
+        <v>0.02374979707558001</v>
       </c>
       <c r="D94">
-        <v>0.006323857519703604</v>
+        <v>-0.04675981591320547</v>
       </c>
       <c r="E94">
-        <v>-0.04306736250063851</v>
+        <v>0.06131341185738486</v>
       </c>
       <c r="F94">
-        <v>0.02168910940180548</v>
+        <v>0.03192198923908886</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1139266504651805</v>
+        <v>-0.1256443013945191</v>
       </c>
       <c r="C95">
-        <v>0.05484649357077127</v>
+        <v>0.005651126851229782</v>
       </c>
       <c r="D95">
-        <v>0.01378941673086777</v>
+        <v>-0.09156852025514733</v>
       </c>
       <c r="E95">
-        <v>-0.03601876386807235</v>
+        <v>0.04416155269671996</v>
       </c>
       <c r="F95">
-        <v>-0.09184585116877204</v>
+        <v>-0.01077213912321014</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.005035496473526378</v>
+        <v>-0.09782178701705183</v>
       </c>
       <c r="C96">
-        <v>0.0108567073379095</v>
+        <v>-0.9890255159193806</v>
       </c>
       <c r="D96">
-        <v>-0.000148228144972844</v>
+        <v>0.02443904727817731</v>
       </c>
       <c r="E96">
-        <v>-0.002922096982703868</v>
+        <v>0.05887723032925738</v>
       </c>
       <c r="F96">
-        <v>-0.024772511698832</v>
+        <v>0.04846538403007698</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1737914710193066</v>
+        <v>-0.1867606521157116</v>
       </c>
       <c r="C97">
-        <v>0.1916228401019045</v>
+        <v>-0.01167368459167317</v>
       </c>
       <c r="D97">
-        <v>0.1044693251254881</v>
+        <v>0.008129587573806871</v>
       </c>
       <c r="E97">
-        <v>0.8856611899188976</v>
+        <v>0.01593469630704509</v>
       </c>
       <c r="F97">
-        <v>0.07457022891762623</v>
+        <v>-0.1750224238953361</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2233166973086101</v>
+        <v>-0.2044030493132156</v>
       </c>
       <c r="C98">
-        <v>0.0574287100933201</v>
+        <v>0.006819014155548837</v>
       </c>
       <c r="D98">
-        <v>0.07586417993793387</v>
+        <v>-0.01380100010389257</v>
       </c>
       <c r="E98">
-        <v>-0.02237620411797854</v>
+        <v>-0.09370145212826698</v>
       </c>
       <c r="F98">
-        <v>-0.05453001138994038</v>
+        <v>-0.1256789050308104</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05921156360597964</v>
+        <v>-0.05705272899133185</v>
       </c>
       <c r="C99">
-        <v>0.02688277023770556</v>
+        <v>-0.003474502864801331</v>
       </c>
       <c r="D99">
-        <v>0.004627284441485887</v>
+        <v>-0.03517240306939847</v>
       </c>
       <c r="E99">
-        <v>-0.02683952156499553</v>
+        <v>0.02649852280669053</v>
       </c>
       <c r="F99">
-        <v>-0.002399698799320032</v>
+        <v>0.003556241619666368</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.0009466407939196128</v>
+        <v>-0.1241522775099521</v>
       </c>
       <c r="C100">
-        <v>0.001795355636734621</v>
+        <v>-0.04907727503430564</v>
       </c>
       <c r="D100">
-        <v>-0.0002115314714701652</v>
+        <v>-0.3381050711952249</v>
       </c>
       <c r="E100">
-        <v>0.12949514052343</v>
+        <v>-0.899790873816803</v>
       </c>
       <c r="F100">
-        <v>0.03995383513176386</v>
+        <v>-0.0638981130317462</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03001726869630295</v>
+        <v>-0.02698629866254763</v>
       </c>
       <c r="C101">
-        <v>0.0273410195085521</v>
+        <v>0.0091776478957482</v>
       </c>
       <c r="D101">
-        <v>-0.02431415510603813</v>
+        <v>-0.03082097352546958</v>
       </c>
       <c r="E101">
-        <v>-0.03018961234868718</v>
+        <v>0.01131096497508599</v>
       </c>
       <c r="F101">
-        <v>0.01643241153817719</v>
+        <v>-0.01206137561461235</v>
       </c>
     </row>
     <row r="102" spans="1:6">
